--- a/lab_3/example/CHISLO_DOCTORS.xlsx
+++ b/lab_3/example/CHISLO_DOCTORS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\LABORATORKI\data_lab_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Probability\lab_3\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE55BC6-CB9F-40A3-932E-7FA685C596AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9864" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSSTAT" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,14 @@
     <sheet name="FO_1" sheetId="4" r:id="rId5"/>
     <sheet name="List_4" sheetId="6" r:id="rId6"/>
     <sheet name="ITOG" sheetId="3" r:id="rId7"/>
+    <sheet name="My_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
   <si>
     <r>
       <t>6.4. ЧИСЛЕННОСТЬ ВРАЧЕЙ всех специальностей</t>
@@ -414,11 +416,20 @@
   <si>
     <t>Число врачей На 10 000 человек населения, Cеверо-Западный федеральный округ</t>
   </si>
+  <si>
+    <t>Округ</t>
+  </si>
+  <si>
+    <t>Северо-Кавказский федеральный округ</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,7 +621,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +639,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -640,7 +651,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,7 +676,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -748,7 +758,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -768,7 +778,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -794,7 +803,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -898,7 +907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="423726256"/>
@@ -960,7 +969,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495133176"/>
@@ -1001,7 +1010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1015,7 +1024,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1027,7 +1036,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1053,7 +1061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1115,7 +1123,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1141,7 +1148,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1245,7 +1252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="420746000"/>
@@ -1307,7 +1314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="420744032"/>
@@ -1348,7 +1355,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1362,7 +1369,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1374,7 +1381,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1400,7 +1406,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1575,7 +1581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="532950608"/>
@@ -1637,7 +1643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="532948640"/>
@@ -1678,7 +1684,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3374,7 +3380,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3404,7 +3416,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3439,7 +3457,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3458,9 +3482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3498,7 +3522,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3533,6 +3557,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3568,9 +3609,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3743,30 +3801,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="14" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
@@ -3786,7 +3844,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="11">
         <v>2005</v>
@@ -3828,7 +3886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3946,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3932,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -3979,7 +4037,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4084,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +4131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4120,7 +4178,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4225,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -4214,7 +4272,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -4302,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -4346,7 +4404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -4434,7 +4492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4478,7 +4536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4522,7 +4580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -4566,7 +4624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -4610,7 +4668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -4654,7 +4712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -4698,7 +4756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -4742,7 +4800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4786,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -4848,7 +4906,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -4892,7 +4950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -4937,7 +4995,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -4958,7 +5016,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -5005,7 +5063,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
@@ -5052,7 +5110,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -5099,7 +5157,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -5146,7 +5204,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -5190,7 +5248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -5234,7 +5292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -5278,7 +5336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -5322,7 +5380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -5366,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
@@ -5410,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -5454,7 +5512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -5498,7 +5556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -5534,7 +5592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -5578,7 +5636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -5622,7 +5680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -5666,7 +5724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -5710,7 +5768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -5746,7 +5804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
@@ -5790,7 +5848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
@@ -5834,7 +5892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
@@ -5878,7 +5936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
@@ -5922,7 +5980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
@@ -5966,7 +6024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
@@ -6010,7 +6068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
@@ -6054,7 +6112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -6098,7 +6156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -6142,7 +6200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -6186,7 +6244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -6230,7 +6288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -6274,7 +6332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -6318,7 +6376,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -6362,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -6406,7 +6464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -6450,7 +6508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -6494,7 +6552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -6538,7 +6596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -6582,7 +6640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -6626,7 +6684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -6670,7 +6728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -6714,7 +6772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -6758,7 +6816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -6802,7 +6860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -6846,7 +6904,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -6890,7 +6948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -6932,7 +6990,7 @@
       </c>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>73</v>
       </c>
@@ -6950,7 +7008,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>74</v>
       </c>
@@ -6994,7 +7052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>75</v>
       </c>
@@ -7041,7 +7099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>104</v>
       </c>
@@ -7085,7 +7143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
@@ -7129,7 +7187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>77</v>
       </c>
@@ -7173,7 +7231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>78</v>
       </c>
@@ -7217,7 +7275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
@@ -7261,7 +7319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
@@ -7305,7 +7363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
@@ -7349,7 +7407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
@@ -7393,7 +7451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>83</v>
       </c>
@@ -7437,7 +7495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>84</v>
       </c>
@@ -7481,7 +7539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>85</v>
       </c>
@@ -7525,7 +7583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>86</v>
       </c>
@@ -7569,7 +7627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>87</v>
       </c>
@@ -7613,7 +7671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -7657,7 +7715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
@@ -7701,7 +7759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>90</v>
       </c>
@@ -7745,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
@@ -7789,7 +7847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>92</v>
       </c>
@@ -7833,7 +7891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
@@ -7877,7 +7935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
@@ -7921,7 +7979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
@@ -7965,7 +8023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
@@ -8009,7 +8067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
@@ -8053,7 +8111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
@@ -8097,7 +8155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -8141,7 +8199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>100</v>
       </c>
@@ -8158,554 +8216,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>39.6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>36.4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>53.1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>37.6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>53.3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>59.7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>51.6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>33.9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>58.1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>72.7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>40.4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>33.1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>52.6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>51.9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>39.6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>34.6</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>40.4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>39.9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>56.8</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>59.7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>53.1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>33.1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>62.9</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>77.7</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>41.3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>51.7</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43.8</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>38.5</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>42.5</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44.5</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>47.9</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>50.1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43.4</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>52.7</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>55.7</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>40.5</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>35.1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>52.9</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44.1</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>42.6</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>38.1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>51.3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>42.3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>42.6</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>44.8</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>52.6</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>51.6</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>45.4</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>38.5</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>50.3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>61.2</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>40.4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>40.5</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>36.5</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>52.3</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>45.4</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>43.1</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>36.9</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>52.7</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>41.2</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>46.5</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>45.2</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>42.4</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>45.9</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>39.9</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>55.2</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>41.9</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>39.1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>37.5</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>53.6</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>44.5</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>44.3</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>52.8</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>46.3</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>45.5</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>50.7</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>45.1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>46.8</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>41.1</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>54.4</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>72.900000000000006</v>
       </c>
@@ -8716,16 +8774,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -8748,7 +8806,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8771,7 +8829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8794,7 +8852,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -8817,7 +8875,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -8840,7 +8898,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -8863,7 +8921,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -8886,7 +8944,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8909,7 +8967,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8932,7 +8990,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8955,7 +9013,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -8978,7 +9036,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -9001,7 +9059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -9024,7 +9082,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -9047,7 +9105,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -9070,7 +9128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -9093,7 +9151,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -9116,7 +9174,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -9139,7 +9197,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9220,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -9185,7 +9243,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -9208,7 +9266,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -9231,7 +9289,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -9254,7 +9312,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -9277,7 +9335,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -9300,7 +9358,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
@@ -9311,7 +9369,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
@@ -9334,7 +9392,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="59.25" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -9357,7 +9415,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -9380,7 +9438,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -9403,7 +9461,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -9426,7 +9484,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -9449,7 +9507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -9472,7 +9530,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -9495,7 +9553,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -9518,7 +9576,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>102</v>
       </c>
@@ -9541,7 +9599,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -9564,7 +9622,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -9587,7 +9645,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -9606,7 +9664,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -9629,7 +9687,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -9652,7 +9710,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
@@ -9675,7 +9733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
@@ -9698,7 +9756,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -9717,7 +9775,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>103</v>
       </c>
@@ -9740,7 +9798,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -9763,7 +9821,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -9786,7 +9844,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
@@ -9809,7 +9867,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -9832,7 +9890,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="39.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
@@ -9855,7 +9913,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
@@ -9878,7 +9936,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
@@ -9901,7 +9959,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -9924,7 +9982,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -9947,7 +10005,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
@@ -9970,7 +10028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
@@ -9993,7 +10051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>58</v>
       </c>
@@ -10016,7 +10074,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
@@ -10039,7 +10097,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>60</v>
       </c>
@@ -10062,7 +10120,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>61</v>
       </c>
@@ -10085,7 +10143,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -10108,7 +10166,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -10131,7 +10189,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>64</v>
       </c>
@@ -10154,7 +10212,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -10177,7 +10235,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>66</v>
       </c>
@@ -10200,7 +10258,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -10223,7 +10281,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -10246,7 +10304,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
@@ -10269,7 +10327,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
@@ -10292,7 +10350,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
@@ -10315,7 +10373,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
@@ -10338,7 +10396,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>73</v>
       </c>
@@ -10349,7 +10407,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="59.25" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>74</v>
       </c>
@@ -10372,7 +10430,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="39.75" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>75</v>
       </c>
@@ -10395,7 +10453,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="49.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>104</v>
       </c>
@@ -10418,7 +10476,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -10441,7 +10499,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
@@ -10464,7 +10522,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
@@ -10487,7 +10545,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
@@ -10510,7 +10568,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
@@ -10533,7 +10591,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
@@ -10556,7 +10614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
@@ -10579,7 +10637,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
@@ -10602,7 +10660,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
@@ -10625,7 +10683,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
@@ -10648,7 +10706,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
@@ -10671,7 +10729,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
@@ -10694,7 +10752,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
@@ -10717,7 +10775,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
@@ -10740,7 +10798,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
@@ -10763,7 +10821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
@@ -10786,7 +10844,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
@@ -10809,7 +10867,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -10832,7 +10890,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
@@ -10855,7 +10913,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
@@ -10878,7 +10936,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
@@ -10901,7 +10959,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
@@ -10924,7 +10982,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
@@ -10947,7 +11005,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>99</v>
       </c>
@@ -10976,19 +11034,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -11011,7 +11069,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -11034,7 +11092,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -11057,7 +11115,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -11080,7 +11138,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
@@ -11091,7 +11149,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
@@ -11114,7 +11172,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
@@ -11137,7 +11195,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -11160,7 +11218,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -11183,7 +11241,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -11206,7 +11264,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -11229,7 +11287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -11252,7 +11310,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -11275,7 +11333,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -11304,17 +11362,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>110</v>
       </c>
@@ -11337,7 +11395,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -11361,7 +11419,7 @@
       </c>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -11385,7 +11443,7 @@
       </c>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -11409,7 +11467,7 @@
       </c>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -11433,7 +11491,7 @@
       </c>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -11457,7 +11515,7 @@
       </c>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -11481,7 +11539,7 @@
       </c>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -11504,7 +11562,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -11527,7 +11585,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -11550,7 +11608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -11573,7 +11631,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -11596,7 +11654,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -11619,7 +11677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -11642,7 +11700,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -11665,7 +11723,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -11688,7 +11746,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -11711,7 +11769,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -11734,7 +11792,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -11763,16 +11821,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>108</v>
       </c>
@@ -11780,7 +11838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2005</v>
       </c>
@@ -11788,7 +11846,7 @@
         <v>45.244444444444454</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2010</v>
       </c>
@@ -11796,7 +11854,7 @@
         <v>46.655555555555559</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2015</v>
       </c>
@@ -11804,7 +11862,7 @@
         <v>43.216666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2019</v>
       </c>
@@ -11812,7 +11870,7 @@
         <v>45.24444444444444</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2020</v>
       </c>
@@ -11820,7 +11878,7 @@
         <v>46.611111111111107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>2021</v>
       </c>
@@ -11835,16 +11893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -11867,7 +11925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -11890,7 +11948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -11912,6 +11970,312 @@
       <c r="G3" s="15">
         <v>54.8</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F671232-84C5-4678-891F-18BD527B1579}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="11">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="15">
+        <v>42.5</v>
+      </c>
+      <c r="C2" s="15">
+        <v>40.1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="E2" s="15">
+        <v>42.9</v>
+      </c>
+      <c r="F2" s="15">
+        <v>44.1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>44.1</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="16">
+        <v>37.4</v>
+      </c>
+      <c r="C3" s="16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D3" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E3" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="F3" s="16">
+        <v>41.4</v>
+      </c>
+      <c r="G3" s="16">
+        <v>40.9</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="16">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D4" s="16">
+        <v>39.4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>44.4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>44.7</v>
+      </c>
+      <c r="G4" s="16">
+        <v>44.9</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="16">
+        <v>44.1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44</v>
+      </c>
+      <c r="D5" s="16">
+        <v>43.7</v>
+      </c>
+      <c r="E5" s="16">
+        <v>46.9</v>
+      </c>
+      <c r="F5" s="16">
+        <v>48.1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>47.4</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>33</v>
+      </c>
+      <c r="D6" s="16">
+        <v>38.9</v>
+      </c>
+      <c r="E6" s="16">
+        <v>41.7</v>
+      </c>
+      <c r="F6" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>43.2</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C7" s="16">
+        <v>70.8</v>
+      </c>
+      <c r="D7" s="16">
+        <v>64.5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>68.2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G7" s="16">
+        <v>68.2</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="16">
+        <v>28.3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>27</v>
+      </c>
+      <c r="E8" s="16">
+        <v>29.4</v>
+      </c>
+      <c r="F8" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G8" s="16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="16">
+        <v>44.9</v>
+      </c>
+      <c r="C9" s="16">
+        <v>39.5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44.2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>46.1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>46.7</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
